--- a/ملفات الاكسل لمشروع التخرج/‏‏plans_subjects_one.xlsx
+++ b/ملفات الاكسل لمشروع التخرج/‏‏plans_subjects_one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bit\Desktop\tamplete\final\timetable-pro\ملفات الاكسل لمشروع التخرج\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083C0FF6-FC19-434E-890D-4ABDBCB40AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99B677A-C973-441E-8C78-FDFC84DC0D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="74">
   <si>
     <t>plan_subject_id</t>
   </si>
@@ -48,9 +48,6 @@
     <t>1,2</t>
   </si>
   <si>
-    <t>دبلوم محاسبة</t>
-  </si>
-  <si>
     <t xml:space="preserve">سنة أولى </t>
   </si>
   <si>
@@ -69,19 +66,187 @@
     <t>First</t>
   </si>
   <si>
-    <t>اللغة العربية</t>
-  </si>
-  <si>
-    <t>فيزياء عامة</t>
-  </si>
-  <si>
-    <t>EEE44460</t>
-  </si>
-  <si>
-    <t>تراسل البيانات والشبكات</t>
-  </si>
-  <si>
-    <t>888m</t>
+    <t>إلكترونيات I</t>
+  </si>
+  <si>
+    <t>دوائر كهربائية II</t>
+  </si>
+  <si>
+    <t>مختبر دوائر كهربائية</t>
+  </si>
+  <si>
+    <t>معالجة الإشارات الرقمية</t>
+  </si>
+  <si>
+    <t>مقدمة في مشروع التخرج</t>
+  </si>
+  <si>
+    <t>أساسيات المنطق الرقمي</t>
+  </si>
+  <si>
+    <t>مقدمة في المعالجات الدقيقة</t>
+  </si>
+  <si>
+    <t>فيزياء عامة I</t>
+  </si>
+  <si>
+    <t>CSE1</t>
+  </si>
+  <si>
+    <t>هندسة أنظمة حاسوب جديد</t>
+  </si>
+  <si>
+    <t>مقدمة في الحاسوب</t>
+  </si>
+  <si>
+    <t>رسم هندسي</t>
+  </si>
+  <si>
+    <t>تفاضل وتكامل I</t>
+  </si>
+  <si>
+    <t>مختبر فيزياء عامة I</t>
+  </si>
+  <si>
+    <t>لغة انجليزية I</t>
+  </si>
+  <si>
+    <t>لغة عربية</t>
+  </si>
+  <si>
+    <t>مقدمة في الهندسة</t>
+  </si>
+  <si>
+    <t>برمجة الحاسوب</t>
+  </si>
+  <si>
+    <t>المشغل الهندسي والأمن الصناعي</t>
+  </si>
+  <si>
+    <t>تفاضل وتكامل II</t>
+  </si>
+  <si>
+    <t>فيزياء عامة II</t>
+  </si>
+  <si>
+    <t>مختبر فيزياء عامة II</t>
+  </si>
+  <si>
+    <t>اللغة الإنجليزية II</t>
+  </si>
+  <si>
+    <t>الثقافة الإسلامية</t>
+  </si>
+  <si>
+    <t>مبادئ الإدارة</t>
+  </si>
+  <si>
+    <t>تفاضل وتكامل III</t>
+  </si>
+  <si>
+    <t>دوائر كهربائية I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الخوارزميات وتركيب البيانات  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">التكنولوجيا والمجتمع </t>
+  </si>
+  <si>
+    <t>الجبر الخطي</t>
+  </si>
+  <si>
+    <t>لغات برمجة</t>
+  </si>
+  <si>
+    <t>إلكترونيات II</t>
+  </si>
+  <si>
+    <t>مختبر إلكترونيات</t>
+  </si>
+  <si>
+    <t>قضية فلسطين</t>
+  </si>
+  <si>
+    <t>معادلات تفاضلية</t>
+  </si>
+  <si>
+    <t>البرمجة الشيئية الموجهة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الإشارات وتواصل البيانات </t>
+  </si>
+  <si>
+    <t>برمجة مرئية</t>
+  </si>
+  <si>
+    <t>نظرية الإحتمالات والإحصاء</t>
+  </si>
+  <si>
+    <t>نظم التشغيل</t>
+  </si>
+  <si>
+    <t>هندسة البرمجيات</t>
+  </si>
+  <si>
+    <t>نظم قواعد البيانات</t>
+  </si>
+  <si>
+    <t>تصميم الأنظمة الرقمية</t>
+  </si>
+  <si>
+    <t>معمارية الحاسوب</t>
+  </si>
+  <si>
+    <t>التحليل العددي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أنظمة التحكم الخطية </t>
+  </si>
+  <si>
+    <t>برمجة إنترنت وتطبيقاته I</t>
+  </si>
+  <si>
+    <t>قواعد البيانات المتقدمة</t>
+  </si>
+  <si>
+    <t>أساليب البحث العلمي</t>
+  </si>
+  <si>
+    <t>برمجة النظم</t>
+  </si>
+  <si>
+    <t>تقنيات الربط بالحاسوب</t>
+  </si>
+  <si>
+    <t>أنظمة الاتصالات</t>
+  </si>
+  <si>
+    <t>برمجة إنترنت وتطبيقاته II</t>
+  </si>
+  <si>
+    <t>شبكات الحاسوب</t>
+  </si>
+  <si>
+    <t>مادة إختيارية 1</t>
+  </si>
+  <si>
+    <t>مادة إختيارية 2</t>
+  </si>
+  <si>
+    <t>مادة إختيارية 3</t>
+  </si>
+  <si>
+    <t>قضايا فقهيه معاصرة</t>
+  </si>
+  <si>
+    <t>مشروع التخرج</t>
+  </si>
+  <si>
+    <t>مادة إختيارية 4</t>
+  </si>
+  <si>
+    <t>مادة إختيارية 5</t>
   </si>
 </sst>
 </file>
@@ -97,8 +262,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,8 +304,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,11 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -436,7 +600,7 @@
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -461,17 +625,17 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>14</v>
+      <c r="B2" t="s">
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -479,16 +643,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -496,24 +660,24 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>14</v>
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -521,8 +685,8 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -530,58 +694,58 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
+        <v>9001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9902</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -589,16 +753,16 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>9</v>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -606,16 +770,16 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11">
-        <v>10</v>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -623,16 +787,16 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>11</v>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -640,16 +804,16 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13">
-        <v>12</v>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -657,50 +821,50 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>13</v>
+      <c r="E14" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -708,16 +872,16 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>17</v>
+      <c r="E18" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -725,16 +889,16 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19">
-        <v>18</v>
+      <c r="E19" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -742,16 +906,16 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>19</v>
+      <c r="E20" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -759,50 +923,50 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21">
-        <v>20</v>
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>14</v>
-      </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -810,16 +974,16 @@
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25">
-        <v>24</v>
+      <c r="E25" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -827,16 +991,16 @@
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26">
-        <v>25</v>
+      <c r="E26" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -844,16 +1008,16 @@
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27">
-        <v>26</v>
+      <c r="E27" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -861,16 +1025,16 @@
       <c r="D28">
         <v>2</v>
       </c>
-      <c r="E28">
-        <v>27</v>
+      <c r="E28" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -878,50 +1042,50 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29">
-        <v>28</v>
+      <c r="E29" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -929,16 +1093,16 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33">
-        <v>32</v>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -946,16 +1110,16 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34">
-        <v>33</v>
+      <c r="E34" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -963,16 +1127,16 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35">
-        <v>34</v>
+      <c r="E35" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -980,50 +1144,50 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36">
-        <v>35</v>
+      <c r="E36" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>14</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>17</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1031,16 +1195,16 @@
       <c r="D40">
         <v>2</v>
       </c>
-      <c r="E40">
-        <v>39</v>
+      <c r="E40" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1048,16 +1212,16 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41">
-        <v>40</v>
+      <c r="E41" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1065,16 +1229,16 @@
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42">
-        <v>41</v>
+      <c r="E42" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>17</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1082,50 +1246,50 @@
       <c r="D43">
         <v>2</v>
       </c>
-      <c r="E43">
-        <v>42</v>
+      <c r="E43" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>45</v>
+        <v>2</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1133,16 +1297,16 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47">
-        <v>46</v>
+      <c r="E47" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1150,16 +1314,16 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48">
-        <v>47</v>
+      <c r="E48" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1167,16 +1331,16 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49">
-        <v>48</v>
+      <c r="E49" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1184,50 +1348,50 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50">
-        <v>49</v>
+      <c r="E50" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1235,16 +1399,16 @@
       <c r="D54">
         <v>2</v>
       </c>
-      <c r="E54">
-        <v>53</v>
+      <c r="E54" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1252,16 +1416,16 @@
       <c r="D55">
         <v>2</v>
       </c>
-      <c r="E55">
-        <v>54</v>
+      <c r="E55" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1269,16 +1433,16 @@
       <c r="D56">
         <v>2</v>
       </c>
-      <c r="E56">
-        <v>55</v>
+      <c r="E56" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1286,50 +1450,50 @@
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="E57">
-        <v>56</v>
+      <c r="E57" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>14</v>
-      </c>
-      <c r="C60">
-        <v>5</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>59</v>
+        <v>2</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1337,16 +1501,16 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61">
-        <v>60</v>
+      <c r="E61" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1354,16 +1518,16 @@
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62">
-        <v>61</v>
+      <c r="E62" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1371,16 +1535,16 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63">
-        <v>62</v>
+      <c r="E63" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1388,50 +1552,50 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64">
-        <v>63</v>
+      <c r="E64" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C66">
         <v>5</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>14</v>
-      </c>
-      <c r="C67">
-        <v>5</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1439,16 +1603,16 @@
       <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68">
-        <v>67</v>
+      <c r="E68" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1456,50 +1620,50 @@
       <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69">
-        <v>68</v>
+      <c r="E69" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>17</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B71">
-        <v>14</v>
-      </c>
-      <c r="C71" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>14</v>
-      </c>
-      <c r="C72" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72">
-        <v>71</v>
+        <v>17</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1508,15 +1672,15 @@
         <v>6</v>
       </c>
       <c r="E73">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1525,15 +1689,15 @@
         <v>6</v>
       </c>
       <c r="E74">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1542,15 +1706,15 @@
         <v>6</v>
       </c>
       <c r="E75">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1559,15 +1723,15 @@
         <v>6</v>
       </c>
       <c r="E76">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1576,15 +1740,15 @@
         <v>6</v>
       </c>
       <c r="E77">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1593,15 +1757,15 @@
         <v>6</v>
       </c>
       <c r="E78">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1610,15 +1774,15 @@
         <v>6</v>
       </c>
       <c r="E79">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1627,15 +1791,15 @@
         <v>6</v>
       </c>
       <c r="E80">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1644,15 +1808,15 @@
         <v>6</v>
       </c>
       <c r="E81">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1661,15 +1825,15 @@
         <v>6</v>
       </c>
       <c r="E82">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1678,15 +1842,15 @@
         <v>6</v>
       </c>
       <c r="E83">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1695,15 +1859,15 @@
         <v>6</v>
       </c>
       <c r="E84">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -1712,15 +1876,15 @@
         <v>6</v>
       </c>
       <c r="E85">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1729,15 +1893,15 @@
         <v>6</v>
       </c>
       <c r="E86">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -1746,15 +1910,15 @@
         <v>6</v>
       </c>
       <c r="E87">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1763,15 +1927,15 @@
         <v>6</v>
       </c>
       <c r="E88">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -1780,15 +1944,15 @@
         <v>6</v>
       </c>
       <c r="E89">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B90">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1797,15 +1961,15 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B91">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1814,15 +1978,15 @@
         <v>6</v>
       </c>
       <c r="E91">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B92">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -1831,60 +1995,60 @@
         <v>6</v>
       </c>
       <c r="E92">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>17</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="B94">
+        <v>17</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>91</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>191</v>
-      </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>191</v>
-      </c>
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>192</v>
-      </c>
-      <c r="B96">
-        <v>4</v>
-      </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>192</v>
-      </c>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B97">
         <v>4</v>
@@ -1896,12 +2060,12 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B98">
         <v>4</v>
@@ -1913,12 +2077,12 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B99">
         <v>4</v>
@@ -1930,12 +2094,12 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B100">
         <v>4</v>
@@ -1947,12 +2111,12 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -1964,12 +2128,12 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B102">
         <v>4</v>
@@ -1981,12 +2145,12 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -1998,10 +2162,45 @@
         <v>1</v>
       </c>
       <c r="E103">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>198</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
         <v>199</v>
       </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>